--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/4 Revisión de Correspondencia.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/2 REVISION/4 Revisión de Correspondencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\2 REVISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C271938E-C0CC-4FAD-BE28-8CA65D411B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8CCF7-8FE1-4D67-AEFB-6A13172EBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,13 +256,13 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t>Del 01 de Enero de 2023 al 31 de Diciembre de 2023</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
     <t>PL-3.17</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -679,9 +679,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +803,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="B3:K1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1171,25 +1171,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
-      <c r="B4" s="60"/>
+      <c r="B4" s="59"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="60"/>
+      <c r="B5" s="59"/>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="61"/>
+      <c r="B6" s="60"/>
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,11 +1202,11 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="15.75">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1" t="s">
@@ -1215,685 +1215,685 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" ht="15.75">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="C10" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="2:9" ht="17.100000000000001" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="17" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" ht="15.75">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="23" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="16"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="2:10" ht="11.25" customHeight="1">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1">
-      <c r="B35" s="19"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10" ht="28.5" customHeight="1">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="2:10" ht="42.75" customHeight="1">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="2:10" ht="31.5" customHeight="1">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10" ht="41.25" customHeight="1">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
-      <c r="B44" s="19"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43" t="s">
+      <c r="D45" s="41"/>
+      <c r="E45" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="2:10" ht="31.5" customHeight="1">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="45" t="s">
+      <c r="D46" s="41"/>
+      <c r="E46" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1">
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40" t="s">
+      <c r="D47" s="38"/>
+      <c r="E47" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="45" t="s">
+      <c r="D48" s="41"/>
+      <c r="E48" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="2:11" ht="29.25" customHeight="1">
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="40" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="45" t="s">
+      <c r="D50" s="41"/>
+      <c r="E50" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="61" spans="2:11" ht="22.5" customHeight="1">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="39"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1902,44 +1902,44 @@
     <row r="68" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="69" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="70" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="73" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="75" spans="2:10" ht="15.75" customHeight="1">
-      <c r="C75" s="25"/>
+      <c r="C75" s="24"/>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" customHeight="1">
       <c r="B77" s="4"/>
@@ -1953,11 +1953,11 @@
     </row>
     <row r="78" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="79" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B79" s="27"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
     </row>
     <row r="82" spans="2:11" ht="15.75" customHeight="1">
       <c r="B82" s="4"/>
@@ -1972,10 +1972,10 @@
       <c r="K82" s="4"/>
     </row>
     <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="9"/>
+      <c r="B84" s="8"/>
     </row>
     <row r="85" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="86" spans="2:11" ht="15.75" customHeight="1"/>
@@ -2903,8 +2903,11 @@
     <row r="1008" ht="15.75" customHeight="1"/>
     <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
